--- a/UseCaseIScenarij/GlavniScenarij.xlsx
+++ b/UseCaseIScenarij/GlavniScenarij.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\OOAD projekat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Grupa2-Aerodrom\UseCaseIScenarij\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45D7172A-81E0-4A9E-859C-517B0BFD438F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +55,6 @@
   </si>
   <si>
     <t>Korisnik je kupio kartu i čeka na njenu dostavu na svoju adresu.</t>
-  </si>
-  <si>
-    <t>2. Ispisivanje poruke o greški.</t>
   </si>
   <si>
     <t>Scenarij 3: Glavni scenarij 
@@ -126,20 +124,23 @@
     </r>
   </si>
   <si>
-    <t>1. Nije moguće izvršiti kupovinu karte.</t>
-  </si>
-  <si>
-    <t>3. Korisnik mijenja izbor i izlazi iz aplikacije.</t>
-  </si>
-  <si>
     <t>2. Ukoliko je riječ o registrovanom 
 korisniku, vrši se login i korisnik potvrđuje unos. U suprotnom, se preskače ovaj korak i prelazi se na korak 3.</t>
+  </si>
+  <si>
+    <t>7.1. Nije moguće izvršiti kupovinu karte.</t>
+  </si>
+  <si>
+    <t>7.2. Ispisivanje poruke o greški.</t>
+  </si>
+  <si>
+    <t>7.3. Korisnik mijenja izbor i izlazi iz aplikacije.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,10 +263,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,18 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,10 +600,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -611,8 +614,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
+      <c r="A1" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -620,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -628,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -658,10 +661,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -673,58 +676,58 @@
     </row>
     <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -734,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
@@ -743,12 +746,12 @@
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1"/>
     </row>
